--- a/熙街.xlsx
+++ b/熙街.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20139\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823086C-BF2E-40DB-997C-A92F68756408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F764A-E045-4661-BBBB-8C01AA740BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>图片的链接</t>
   </si>
@@ -35,13 +35,6 @@
   <si>
     <t>(图1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(图2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A0o16000000z5af0FDE0.jpg (1440×1080) (c-ctrip.com)</t>
   </si>
   <si>
     <t>https://p9-bk.byteimg.com/tos-cn-i-mlhdmxsy5m/c081c664b23f4d1aa2a5d928eea8dfa5~tplv-mlhdmxsy5m-q75:0:0.image</t>
@@ -392,7 +385,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -411,18 +404,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,10 +415,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://youimg1.c-ctrip.com/target/1A0o16000000z5af0FDE0.jpg" xr:uid="{4DDBCB2C-D545-4CF3-AF50-72F238B16F82}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>